--- a/Skeleton/assets/data/Pre_combined Data/correlation.xlsx
+++ b/Skeleton/assets/data/Pre_combined Data/correlation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,352 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>abbr</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>excellentHealth</t>
+  </si>
+  <si>
+    <t>youngPop</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>youngMen</t>
+  </si>
+  <si>
+    <t>youngWomen</t>
+  </si>
+  <si>
+    <t>poorHealth</t>
+  </si>
+  <si>
+    <t>goodHealth</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +674,1553 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>16.8</v>
+      </c>
+      <c r="E2">
+        <v>6.3</v>
+      </c>
+      <c r="F2">
+        <v>6.4</v>
+      </c>
+      <c r="G2">
+        <v>6.3</v>
+      </c>
+      <c r="H2">
+        <v>32.4</v>
+      </c>
+      <c r="I2">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>21.1</v>
+      </c>
+      <c r="E3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G3">
+        <v>7.6</v>
+      </c>
+      <c r="H3">
+        <v>30.3</v>
+      </c>
+      <c r="I3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>19.2</v>
+      </c>
+      <c r="E4">
+        <v>6.7</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>6.4</v>
+      </c>
+      <c r="H4">
+        <v>30.4</v>
+      </c>
+      <c r="I4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>15.3</v>
+      </c>
+      <c r="E5">
+        <v>6.4</v>
+      </c>
+      <c r="F5">
+        <v>6.5</v>
+      </c>
+      <c r="G5">
+        <v>6.3</v>
+      </c>
+      <c r="H5">
+        <v>32.6</v>
+      </c>
+      <c r="I5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>20.5</v>
+      </c>
+      <c r="E6">
+        <v>7.5</v>
+      </c>
+      <c r="F6">
+        <v>7.8</v>
+      </c>
+      <c r="G6">
+        <v>7.2</v>
+      </c>
+      <c r="H6">
+        <v>29.9</v>
+      </c>
+      <c r="I6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>21.2</v>
+      </c>
+      <c r="E7">
+        <v>7.4</v>
+      </c>
+      <c r="F7">
+        <v>7.7</v>
+      </c>
+      <c r="G7">
+        <v>7.2</v>
+      </c>
+      <c r="H7">
+        <v>29.5</v>
+      </c>
+      <c r="I7">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>23.4</v>
+      </c>
+      <c r="E8">
+        <v>6.1</v>
+      </c>
+      <c r="F8">
+        <v>6.4</v>
+      </c>
+      <c r="G8">
+        <v>5.8</v>
+      </c>
+      <c r="H8">
+        <v>27.5</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E9">
+        <v>6.7</v>
+      </c>
+      <c r="F9">
+        <v>6.8</v>
+      </c>
+      <c r="G9">
+        <v>6.7</v>
+      </c>
+      <c r="H9">
+        <v>32.9</v>
+      </c>
+      <c r="I9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>11.8</v>
+      </c>
+      <c r="F10">
+        <v>11.4</v>
+      </c>
+      <c r="G10">
+        <v>12.2</v>
+      </c>
+      <c r="H10">
+        <v>25.1</v>
+      </c>
+      <c r="I10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>20.7</v>
+      </c>
+      <c r="E11">
+        <v>6.4</v>
+      </c>
+      <c r="F11">
+        <v>6.7</v>
+      </c>
+      <c r="G11">
+        <v>6.2</v>
+      </c>
+      <c r="H11">
+        <v>31.2</v>
+      </c>
+      <c r="I11">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>6.8</v>
+      </c>
+      <c r="F12">
+        <v>6.8</v>
+      </c>
+      <c r="G12">
+        <v>6.7</v>
+      </c>
+      <c r="H12">
+        <v>31.6</v>
+      </c>
+      <c r="I12">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>20.6</v>
+      </c>
+      <c r="E13">
+        <v>7.7</v>
+      </c>
+      <c r="F13">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G13">
+        <v>7.2</v>
+      </c>
+      <c r="H13">
+        <v>36.1</v>
+      </c>
+      <c r="I13">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>20.7</v>
+      </c>
+      <c r="E14">
+        <v>6.4</v>
+      </c>
+      <c r="F14">
+        <v>6.4</v>
+      </c>
+      <c r="G14">
+        <v>6.4</v>
+      </c>
+      <c r="H14">
+        <v>29.8</v>
+      </c>
+      <c r="I14">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>18.5</v>
+      </c>
+      <c r="E15">
+        <v>6.9</v>
+      </c>
+      <c r="F15">
+        <v>7.1</v>
+      </c>
+      <c r="G15">
+        <v>6.7</v>
+      </c>
+      <c r="H15">
+        <v>32.4</v>
+      </c>
+      <c r="I15">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>15.6</v>
+      </c>
+      <c r="E16">
+        <v>6.4</v>
+      </c>
+      <c r="F16">
+        <v>6.4</v>
+      </c>
+      <c r="G16">
+        <v>6.3</v>
+      </c>
+      <c r="H16">
+        <v>34.9</v>
+      </c>
+      <c r="I16">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>18.5</v>
+      </c>
+      <c r="E17">
+        <v>6.2</v>
+      </c>
+      <c r="F17">
+        <v>6.3</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>31.2</v>
+      </c>
+      <c r="I17">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E18">
+        <v>6.6</v>
+      </c>
+      <c r="F18">
+        <v>6.8</v>
+      </c>
+      <c r="G18">
+        <v>6.4</v>
+      </c>
+      <c r="H18">
+        <v>31.2</v>
+      </c>
+      <c r="I18">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>15.5</v>
+      </c>
+      <c r="E19">
+        <v>6.3</v>
+      </c>
+      <c r="F19">
+        <v>6.4</v>
+      </c>
+      <c r="G19">
+        <v>6.1</v>
+      </c>
+      <c r="H19">
+        <v>30.8</v>
+      </c>
+      <c r="I19">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E20">
+        <v>7.2</v>
+      </c>
+      <c r="F20">
+        <v>7.2</v>
+      </c>
+      <c r="G20">
+        <v>7.1</v>
+      </c>
+      <c r="H20">
+        <v>30.5</v>
+      </c>
+      <c r="I20">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E21">
+        <v>5.8</v>
+      </c>
+      <c r="F21">
+        <v>5.9</v>
+      </c>
+      <c r="G21">
+        <v>5.7</v>
+      </c>
+      <c r="H21">
+        <v>28.9</v>
+      </c>
+      <c r="I21">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>21.4</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>7.3</v>
+      </c>
+      <c r="G22">
+        <v>6.7</v>
+      </c>
+      <c r="H22">
+        <v>29.9</v>
+      </c>
+      <c r="I22">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>7.1</v>
+      </c>
+      <c r="F23">
+        <v>7.3</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>15.6</v>
+      </c>
+      <c r="E24">
+        <v>6.1</v>
+      </c>
+      <c r="F24">
+        <v>6.3</v>
+      </c>
+      <c r="G24">
+        <v>5.9</v>
+      </c>
+      <c r="H24">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>20.2</v>
+      </c>
+      <c r="E25">
+        <v>6.7</v>
+      </c>
+      <c r="F25">
+        <v>6.9</v>
+      </c>
+      <c r="G25">
+        <v>6.6</v>
+      </c>
+      <c r="H25">
+        <v>30.3</v>
+      </c>
+      <c r="I25">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>6.5</v>
+      </c>
+      <c r="F26">
+        <v>6.6</v>
+      </c>
+      <c r="G26">
+        <v>6.4</v>
+      </c>
+      <c r="H26">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="I26">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>6.5</v>
+      </c>
+      <c r="F27">
+        <v>6.7</v>
+      </c>
+      <c r="G27">
+        <v>6.4</v>
+      </c>
+      <c r="H27">
+        <v>31.1</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>20.2</v>
+      </c>
+      <c r="E28">
+        <v>6.1</v>
+      </c>
+      <c r="F28">
+        <v>6.2</v>
+      </c>
+      <c r="G28">
+        <v>5.9</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>19.3</v>
+      </c>
+      <c r="E29">
+        <v>6.6</v>
+      </c>
+      <c r="F29">
+        <v>6.7</v>
+      </c>
+      <c r="G29">
+        <v>6.5</v>
+      </c>
+      <c r="H29">
+        <v>31.1</v>
+      </c>
+      <c r="I29">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E30">
+        <v>7.2</v>
+      </c>
+      <c r="F30">
+        <v>7.3</v>
+      </c>
+      <c r="G30">
+        <v>7.1</v>
+      </c>
+      <c r="H30">
+        <v>33.9</v>
+      </c>
+      <c r="I30">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31">
+        <v>21.1</v>
+      </c>
+      <c r="E31">
+        <v>5.9</v>
+      </c>
+      <c r="F31">
+        <v>6.1</v>
+      </c>
+      <c r="G31">
+        <v>5.7</v>
+      </c>
+      <c r="H31">
+        <v>26.3</v>
+      </c>
+      <c r="I31">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32">
+        <v>20.5</v>
+      </c>
+      <c r="E32">
+        <v>6.4</v>
+      </c>
+      <c r="F32">
+        <v>6.7</v>
+      </c>
+      <c r="G32">
+        <v>6.1</v>
+      </c>
+      <c r="H32">
+        <v>30.6</v>
+      </c>
+      <c r="I32">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E33">
+        <v>6.6</v>
+      </c>
+      <c r="F33">
+        <v>6.9</v>
+      </c>
+      <c r="G33">
+        <v>6.4</v>
+      </c>
+      <c r="H33">
+        <v>34</v>
+      </c>
+      <c r="I33">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E34">
+        <v>7.5</v>
+      </c>
+      <c r="F34">
+        <v>7.7</v>
+      </c>
+      <c r="G34">
+        <v>7.3</v>
+      </c>
+      <c r="H34">
+        <v>31.7</v>
+      </c>
+      <c r="I34">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>6.5</v>
+      </c>
+      <c r="F35">
+        <v>6.6</v>
+      </c>
+      <c r="G35">
+        <v>6.4</v>
+      </c>
+      <c r="H35">
+        <v>30.4</v>
+      </c>
+      <c r="I35">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E36">
+        <v>7.6</v>
+      </c>
+      <c r="F36">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G36">
+        <v>6.9</v>
+      </c>
+      <c r="H36">
+        <v>31.1</v>
+      </c>
+      <c r="I36">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37">
+        <v>18.2</v>
+      </c>
+      <c r="E37">
+        <v>6.4</v>
+      </c>
+      <c r="F37">
+        <v>6.6</v>
+      </c>
+      <c r="G37">
+        <v>6.3</v>
+      </c>
+      <c r="H37">
+        <v>31.5</v>
+      </c>
+      <c r="I37">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38">
+        <v>16.3</v>
+      </c>
+      <c r="E38">
+        <v>6.8</v>
+      </c>
+      <c r="F38">
+        <v>6.9</v>
+      </c>
+      <c r="G38">
+        <v>6.7</v>
+      </c>
+      <c r="H38">
+        <v>32.6</v>
+      </c>
+      <c r="I38">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E39">
+        <v>6.7</v>
+      </c>
+      <c r="F39">
+        <v>6.8</v>
+      </c>
+      <c r="G39">
+        <v>6.6</v>
+      </c>
+      <c r="H39">
+        <v>30.3</v>
+      </c>
+      <c r="I39">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40">
+        <v>18.7</v>
+      </c>
+      <c r="E40">
+        <v>6.6</v>
+      </c>
+      <c r="F40">
+        <v>6.8</v>
+      </c>
+      <c r="G40">
+        <v>6.4</v>
+      </c>
+      <c r="H40">
+        <v>30</v>
+      </c>
+      <c r="I40">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E41">
+        <v>6.8</v>
+      </c>
+      <c r="F41">
+        <v>7.2</v>
+      </c>
+      <c r="G41">
+        <v>6.5</v>
+      </c>
+      <c r="H41">
+        <v>29.1</v>
+      </c>
+      <c r="I41">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42">
+        <v>17.7</v>
+      </c>
+      <c r="E42">
+        <v>6.5</v>
+      </c>
+      <c r="F42">
+        <v>6.6</v>
+      </c>
+      <c r="G42">
+        <v>6.4</v>
+      </c>
+      <c r="H42">
+        <v>30.5</v>
+      </c>
+      <c r="I42">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>6.5</v>
+      </c>
+      <c r="F43">
+        <v>6.7</v>
+      </c>
+      <c r="G43">
+        <v>6.3</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+      <c r="I43">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44">
+        <v>16.5</v>
+      </c>
+      <c r="E44">
+        <v>6.6</v>
+      </c>
+      <c r="F44">
+        <v>6.7</v>
+      </c>
+      <c r="G44">
+        <v>6.5</v>
+      </c>
+      <c r="H44">
+        <v>29.8</v>
+      </c>
+      <c r="I44">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E45">
+        <v>7.2</v>
+      </c>
+      <c r="F45">
+        <v>7.5</v>
+      </c>
+      <c r="G45">
+        <v>7</v>
+      </c>
+      <c r="H45">
+        <v>34.5</v>
+      </c>
+      <c r="I45">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46">
+        <v>22.9</v>
+      </c>
+      <c r="E46">
+        <v>7.2</v>
+      </c>
+      <c r="F46">
+        <v>7.2</v>
+      </c>
+      <c r="G46">
+        <v>7.1</v>
+      </c>
+      <c r="H46">
+        <v>29.5</v>
+      </c>
+      <c r="I46">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <v>20.9</v>
+      </c>
+      <c r="E47">
+        <v>5.8</v>
+      </c>
+      <c r="F47">
+        <v>5.9</v>
+      </c>
+      <c r="G47">
+        <v>5.6</v>
+      </c>
+      <c r="H47">
+        <v>28.6</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48">
+        <v>20.2</v>
+      </c>
+      <c r="E48">
+        <v>7.1</v>
+      </c>
+      <c r="F48">
+        <v>7.3</v>
+      </c>
+      <c r="G48">
+        <v>6.8</v>
+      </c>
+      <c r="H48">
+        <v>28.7</v>
+      </c>
+      <c r="I48">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E49">
+        <v>7.2</v>
+      </c>
+      <c r="F49">
+        <v>7.5</v>
+      </c>
+      <c r="G49">
+        <v>6.9</v>
+      </c>
+      <c r="H49">
+        <v>30.8</v>
+      </c>
+      <c r="I49">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50">
+        <v>13.5</v>
+      </c>
+      <c r="E50">
+        <v>5.9</v>
+      </c>
+      <c r="F50">
+        <v>6.1</v>
+      </c>
+      <c r="G50">
+        <v>5.7</v>
+      </c>
+      <c r="H50">
+        <v>32.6</v>
+      </c>
+      <c r="I50">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>6.2</v>
+      </c>
+      <c r="F51">
+        <v>6.4</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>30.4</v>
+      </c>
+      <c r="I51">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52">
+        <v>22.2</v>
+      </c>
+      <c r="E52">
+        <v>6.9</v>
+      </c>
+      <c r="F52">
+        <v>7.3</v>
+      </c>
+      <c r="G52">
+        <v>6.6</v>
+      </c>
+      <c r="H52">
+        <v>30.3</v>
+      </c>
+      <c r="I52">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>33.6</v>
+      </c>
+      <c r="I53">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>